--- a/level-3/leetcode/phase-3-dynamic-programming/leetcode-phase-3-dynamic-programming.xlsx
+++ b/level-3/leetcode/phase-3-dynamic-programming/leetcode-phase-3-dynamic-programming.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16A235-89CB-40B4-8BB0-846D3C2EE69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B8ECE-8EE7-4153-8766-858A6C9335A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dynamicprogramming" sheetId="14" r:id="rId1"/>
+    <sheet name="dynamic-programming" sheetId="14" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>

--- a/level-3/leetcode/phase-3-dynamic-programming/leetcode-phase-3-dynamic-programming.xlsx
+++ b/level-3/leetcode/phase-3-dynamic-programming/leetcode-phase-3-dynamic-programming.xlsx
@@ -3,16 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B8ECE-8EE7-4153-8766-858A6C9335A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176A9DC5-6C78-492B-B0A8-A01F7AA6A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic-programming" sheetId="14" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -902,22 +899,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -928,805 +910,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="leetcode-phase-3-3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="63">
-          <cell r="H63">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="H102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="H103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="H104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="H105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="H106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="H107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="H108">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="H109">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="H110">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="H111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="H112">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="H113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="H114">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="H115">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="H116">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="H117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="H118">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="H119">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="H120">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="H121">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="H122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="H123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="H124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="H125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="H126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="H127">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="H128">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="H129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="H130">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="H131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="H132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="H133">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="H134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="H135">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="H136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="H137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="H138">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="H139">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="H140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="H141">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="H142">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="H143">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="H144">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="H145">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="H146">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="H147">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="H148">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="H149">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="H150">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="H151">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="H152">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="H153">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="H154">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="H155">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="H156">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="H157">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="H158">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="H159">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="H160">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="H161">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="H162">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="H163">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="H164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="H165">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="H166">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="H167">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="H168">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="H169">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="H170">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="H171">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="H172">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="H173">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="H174">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="H175">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="H176">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="H177">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="H178">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="H179">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="H180">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="H181">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="H182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="H183">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="H184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="H185">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="H186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="H187">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="H188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="H189">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="H190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="H191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="H192">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="H193">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="H194">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="H195">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="H196">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="H197">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="H198">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="H199">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="H200">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="H201">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="H202">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="H203">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="H204">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="H205">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="H206">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="H207">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="H208">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="H209">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="H210">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="H211">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="H212">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="H213">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="H214">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="H215">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="H216">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="H217">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="H218">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="H219">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2117,35 +1300,35 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="5" t="e">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!C63:C219)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C219)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="5" t="e">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!D63:D219)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="5" t="e">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!E63:E219)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="5" t="e">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!F63:F219)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="5" t="e">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!G63:G219)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="5">
-        <f>AVERAGE('[1]leetcode-phase-3-3'!H63:H219)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>COUNTA(I204:I826)</f>
+        <f>COUNTA(I4:I826)</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>COUNTA(J4:J1000)</f>
+        <f>COUNTA(J4:J826)</f>
         <v>200</v>
       </c>
     </row>
@@ -2162,7 +1345,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -2182,7 +1365,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -2202,7 +1385,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -2222,7 +1405,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -2242,7 +1425,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -2262,7 +1445,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -2282,7 +1465,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -2302,7 +1485,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -2322,7 +1505,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -2342,7 +1525,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -2362,7 +1545,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -2382,7 +1565,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -2402,7 +1585,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -2422,7 +1605,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -2442,7 +1625,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -2462,7 +1645,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -2482,7 +1665,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -2502,7 +1685,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -2522,7 +1705,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -2542,7 +1725,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -2562,7 +1745,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -2582,7 +1765,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -2602,7 +1785,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -2622,7 +1805,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="10" t="s">
@@ -2642,7 +1825,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="10" t="s">
@@ -2662,7 +1845,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="10" t="s">
@@ -2682,7 +1865,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -2702,7 +1885,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
@@ -2722,7 +1905,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
@@ -2742,7 +1925,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
@@ -2762,7 +1945,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="10" t="s">
@@ -2782,7 +1965,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -2802,7 +1985,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <f t="shared" ref="H36:H67" si="1">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="10" t="s">
@@ -2822,7 +2005,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="10" t="s">
@@ -2842,7 +2025,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="10" t="s">
@@ -2862,7 +2045,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="10" t="s">
@@ -2882,7 +2065,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="10" t="s">
@@ -2902,7 +2085,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
@@ -2922,7 +2105,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
@@ -2942,7 +2125,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -2962,7 +2145,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -2982,7 +2165,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -3002,7 +2185,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -3022,7 +2205,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="10" t="s">
@@ -3042,7 +2225,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="10" t="s">
@@ -3062,7 +2245,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="10" t="s">
@@ -3082,7 +2265,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="10" t="s">
@@ -3102,7 +2285,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -3122,7 +2305,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="10" t="s">
@@ -3142,7 +2325,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="10" t="s">
@@ -3162,7 +2345,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="10" t="s">
@@ -3182,7 +2365,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="10" t="s">
@@ -3202,7 +2385,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="10" t="s">
@@ -3222,7 +2405,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="10" t="s">
@@ -3242,7 +2425,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -3262,7 +2445,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="10" t="s">
@@ -3282,7 +2465,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -3302,7 +2485,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="10" t="s">
@@ -3322,7 +2505,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="10" t="s">
@@ -3342,7 +2525,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -3362,7 +2545,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -3382,7 +2565,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="10" t="s">
@@ -3402,7 +2585,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="10" t="s">
@@ -3422,7 +2605,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="10" t="s">
@@ -3442,7 +2625,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:H99" si="2">SUM(C68:G68)</f>
+        <f t="shared" ref="H68:H99" si="3">SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="10" t="s">
@@ -3462,7 +2645,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69" s="10" t="s">
@@ -3482,7 +2665,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70" s="10" t="s">
@@ -3502,7 +2685,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71" s="10" t="s">
@@ -3522,7 +2705,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72" s="10" t="s">
@@ -3542,7 +2725,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73" s="10" t="s">
@@ -3562,7 +2745,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74" s="10" t="s">
@@ -3582,7 +2765,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="10" t="s">
@@ -3602,7 +2785,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76" s="10" t="s">
@@ -3622,7 +2805,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77" s="10" t="s">
@@ -3642,7 +2825,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78" s="10" t="s">
@@ -3662,7 +2845,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79" s="10" t="s">
@@ -3682,7 +2865,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80" s="10" t="s">
@@ -3702,7 +2885,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81" s="10" t="s">
@@ -3722,7 +2905,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J82" s="10" t="s">
@@ -3742,7 +2925,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83" s="10" t="s">
@@ -3762,7 +2945,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84" s="10" t="s">
@@ -3782,7 +2965,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85" s="10" t="s">
@@ -3802,7 +2985,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86" s="10" t="s">
@@ -3822,7 +3005,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87" s="10" t="s">
@@ -3842,7 +3025,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="10" t="s">
@@ -3862,7 +3045,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89" s="10" t="s">
@@ -3882,7 +3065,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90" s="10" t="s">
@@ -3902,7 +3085,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91" s="10" t="s">
@@ -3922,7 +3105,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92" s="10" t="s">
@@ -3942,7 +3125,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93" s="10" t="s">
@@ -3962,7 +3145,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94" s="10" t="s">
@@ -3982,7 +3165,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J95" s="10" t="s">
@@ -4002,7 +3185,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J96" s="10" t="s">
@@ -4022,7 +3205,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J97" s="10" t="s">
@@ -4042,7 +3225,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J98" s="10" t="s">
@@ -4062,7 +3245,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J99" s="10" t="s">
@@ -4082,7 +3265,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="6">
-        <f t="shared" ref="H100:H131" si="3">SUM(C100:G100)</f>
+        <f t="shared" ref="H100:H131" si="4">SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="10" t="s">
@@ -4102,7 +3285,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J101" s="10" t="s">
@@ -4122,7 +3305,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J102" s="10" t="s">
@@ -4142,7 +3325,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J103" s="10" t="s">
@@ -4162,7 +3345,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J104" s="10" t="s">
@@ -4182,7 +3365,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J105" s="10" t="s">
@@ -4202,7 +3385,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J106" s="10" t="s">
@@ -4222,7 +3405,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J107" s="10" t="s">
@@ -4242,7 +3425,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J108" s="10" t="s">
@@ -4262,7 +3445,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J109" s="10" t="s">
@@ -4282,7 +3465,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J110" s="10" t="s">
@@ -4302,7 +3485,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J111" s="10" t="s">
@@ -4322,7 +3505,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J112" s="10" t="s">
@@ -4342,7 +3525,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J113" s="10" t="s">
@@ -4362,7 +3545,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J114" s="10" t="s">
@@ -4382,7 +3565,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J115" s="10" t="s">
@@ -4402,7 +3585,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J116" s="10" t="s">
@@ -4422,7 +3605,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J117" s="10" t="s">
@@ -4442,7 +3625,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J118" s="10" t="s">
@@ -4462,7 +3645,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J119" s="10" t="s">
@@ -4482,7 +3665,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J120" s="10" t="s">
@@ -4502,7 +3685,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J121" s="10" t="s">
@@ -4522,7 +3705,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J122" s="10" t="s">
@@ -4542,7 +3725,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J123" s="10" t="s">
@@ -4562,7 +3745,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J124" s="10" t="s">
@@ -4582,7 +3765,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J125" s="10" t="s">
@@ -4602,7 +3785,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J126" s="10" t="s">
@@ -4622,7 +3805,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J127" s="10" t="s">
@@ -4642,7 +3825,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J128" s="10" t="s">
@@ -4662,7 +3845,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J129" s="10" t="s">
@@ -4682,7 +3865,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J130" s="10" t="s">
@@ -4702,7 +3885,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J131" s="10" t="s">
@@ -4722,7 +3905,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="6">
-        <f t="shared" ref="H132:H163" si="4">SUM(C132:G132)</f>
+        <f t="shared" ref="H132:H163" si="5">SUM(C132:G132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="10" t="s">
@@ -4742,7 +3925,7 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J133" s="10" t="s">
@@ -4762,7 +3945,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J134" s="10" t="s">
@@ -4782,7 +3965,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J135" s="10" t="s">
@@ -4802,7 +3985,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J136" s="10" t="s">
@@ -4822,7 +4005,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J137" s="10" t="s">
@@ -4842,7 +4025,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J138" s="10" t="s">
@@ -4862,7 +4045,7 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J139" s="10" t="s">
@@ -4882,7 +4065,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J140" s="10" t="s">
@@ -4902,7 +4085,7 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J141" s="10" t="s">
@@ -4922,7 +4105,7 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J142" s="10" t="s">
@@ -4942,7 +4125,7 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J143" s="10" t="s">
@@ -4962,7 +4145,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J144" s="10" t="s">
@@ -4982,7 +4165,7 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J145" s="10" t="s">
@@ -5002,7 +4185,7 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J146" s="10" t="s">
@@ -5022,7 +4205,7 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J147" s="10" t="s">
@@ -5042,7 +4225,7 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J148" s="10" t="s">
@@ -5062,7 +4245,7 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J149" s="10" t="s">
@@ -5082,7 +4265,7 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J150" s="10" t="s">
@@ -5102,7 +4285,7 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J151" s="10" t="s">
@@ -5122,7 +4305,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J152" s="10" t="s">
@@ -5142,7 +4325,7 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J153" s="10" t="s">
@@ -5162,7 +4345,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J154" s="10" t="s">
@@ -5182,7 +4365,7 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J155" s="10" t="s">
@@ -5202,7 +4385,7 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J156" s="10" t="s">
@@ -5222,7 +4405,7 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J157" s="10" t="s">
@@ -5242,7 +4425,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J158" s="10" t="s">
@@ -5262,7 +4445,7 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J159" s="10" t="s">
@@ -5282,7 +4465,7 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J160" s="10" t="s">
@@ -5302,7 +4485,7 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J161" s="10" t="s">
@@ -5322,7 +4505,7 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J162" s="10" t="s">
@@ -5342,7 +4525,7 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J163" s="10" t="s">
@@ -5362,7 +4545,7 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="6">
-        <f t="shared" ref="H164:H195" si="5">SUM(C164:G164)</f>
+        <f t="shared" ref="H164:H195" si="6">SUM(C164:G164)</f>
         <v>0</v>
       </c>
       <c r="J164" s="10" t="s">
@@ -5382,7 +4565,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J165" s="10" t="s">
@@ -5402,7 +4585,7 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J166" s="10" t="s">
@@ -5422,7 +4605,7 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J167" s="10" t="s">
@@ -5442,7 +4625,7 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J168" s="10" t="s">
@@ -5462,7 +4645,7 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J169" s="10" t="s">
@@ -5482,7 +4665,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J170" s="10" t="s">
@@ -5502,7 +4685,7 @@
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J171" s="10" t="s">
@@ -5522,7 +4705,7 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J172" s="10" t="s">
@@ -5542,7 +4725,7 @@
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J173" s="10" t="s">
@@ -5562,7 +4745,7 @@
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J174" s="10" t="s">
@@ -5582,7 +4765,7 @@
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J175" s="10" t="s">
@@ -5602,7 +4785,7 @@
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J176" s="10" t="s">
@@ -5622,7 +4805,7 @@
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J177" s="10" t="s">
@@ -5642,7 +4825,7 @@
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J178" s="10" t="s">
@@ -5662,7 +4845,7 @@
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J179" s="10" t="s">
@@ -5682,7 +4865,7 @@
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J180" s="10" t="s">
@@ -5702,7 +4885,7 @@
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J181" s="10" t="s">
@@ -5722,7 +4905,7 @@
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J182" s="10" t="s">
@@ -5742,7 +4925,7 @@
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J183" s="10" t="s">
@@ -5762,7 +4945,7 @@
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J184" s="10" t="s">
@@ -5782,7 +4965,7 @@
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J185" s="10" t="s">
@@ -5802,7 +4985,7 @@
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J186" s="10" t="s">
@@ -5822,7 +5005,7 @@
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J187" s="10" t="s">
@@ -5842,7 +5025,7 @@
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J188" s="10" t="s">
@@ -5862,7 +5045,7 @@
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J189" s="10" t="s">
@@ -5882,7 +5065,7 @@
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J190" s="10" t="s">
@@ -5902,7 +5085,7 @@
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J191" s="10" t="s">
@@ -5922,7 +5105,7 @@
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J192" s="10" t="s">
@@ -5942,7 +5125,7 @@
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J193" s="10" t="s">
@@ -5962,7 +5145,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J194" s="10" t="s">
@@ -5982,7 +5165,7 @@
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J195" s="10" t="s">
@@ -6002,7 +5185,7 @@
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="6">
-        <f t="shared" ref="H196:H203" si="6">SUM(C196:G196)</f>
+        <f t="shared" ref="H196:H203" si="7">SUM(C196:G196)</f>
         <v>0</v>
       </c>
       <c r="J196" s="10" t="s">
@@ -6022,7 +5205,7 @@
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J197" s="10" t="s">
@@ -6042,7 +5225,7 @@
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J198" s="10" t="s">
@@ -6062,7 +5245,7 @@
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J199" s="10" t="s">
@@ -6082,7 +5265,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J200" s="10" t="s">
@@ -6102,7 +5285,7 @@
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J201" s="10" t="s">
@@ -6122,7 +5305,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J202" s="10" t="s">
@@ -6142,7 +5325,7 @@
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J203" s="10" t="s">
@@ -6214,16 +5397,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J32" r:id="rId1" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{6FC387AC-AB68-44D4-BF62-26495F37BF71}"/>
     <hyperlink ref="J33" r:id="rId2" display="https://leetcode.com/problems/design-a-stack-with-increment-operation/" xr:uid="{B92B57D1-4495-4427-8854-BAD96B846D78}"/>
